--- a/data/support_data/support_data_short.xlsx
+++ b/data/support_data/support_data_short.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/412c03843097dcf2/毕业论文-黄喆晗/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Occupational-health-calculation\data\support_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{97E9B1CA-4DC5-4603-9AF0-3489A0EDF5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8623AE16-3A2F-427A-A1D2-E2DB09F0A88E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE218E01-0A81-428E-BB92-DD0C70AE1272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="long-short split" sheetId="1" r:id="rId1"/>
@@ -293,13 +293,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -308,6 +302,12 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,18 +591,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -635,7 +635,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -679,7 +679,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -690,7 +690,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -712,7 +712,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -745,11 +745,11 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="7">
         <v>0</v>
       </c>
       <c r="C14" s="7">
@@ -770,13 +770,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="11.46484375" customWidth="1"/>
+    <col min="3" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="54.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -790,7 +790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -803,12 +803,12 @@
       <c r="D2" s="2">
         <v>49.6</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <f>AVERAGE(B2:C2)</f>
         <v>49.599999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -821,12 +821,12 @@
       <c r="D3" s="2">
         <v>29</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <f t="shared" ref="E3:E4" si="0">AVERAGE(B3:C3)</f>
         <v>28.95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -839,7 +839,7 @@
       <c r="D4" s="10">
         <v>16.100000000000001</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <f t="shared" si="0"/>
         <v>16.049999999999997</v>
       </c>
@@ -858,16 +858,16 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -877,150 +877,150 @@
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>0.10813846153846153</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16">
-        <v>0</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>0.27723333333333339</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>0.27723333333333339</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>0.13100000000000001</v>
       </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>0.113</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>6.3766666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>0.187</v>
       </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>0.252</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>0.13919999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="16">
-        <v>0</v>
-      </c>
-      <c r="C13" s="16">
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>0.10489520719746467</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>3.8808716163959783E-2</v>
       </c>
     </row>
@@ -1035,18 +1035,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCC2798-17B4-4391-8FAA-5DC87ED072EF}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1328125" customWidth="1"/>
-    <col min="3" max="3" width="32.59765625" customWidth="1"/>
+    <col min="1" max="1" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1057,159 +1057,159 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="15">
         <f>C2*365/1.46</f>
         <v>9.5</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="16">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="15">
         <f t="shared" ref="B3:B14" si="0">C3*365/1.46</f>
         <v>27.041666666666746</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <v>0.10816666666666699</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="15">
         <f t="shared" si="0"/>
         <v>53.41666666666675</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="16">
         <v>0.213666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="15">
         <f t="shared" si="0"/>
         <v>53.41666666666675</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <v>0.213666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="16">
         <v>0.10400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>27.999999999999996</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="16">
         <v>0.11199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>13.999999999999998</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <v>5.5999999999999994E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>8.375</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>6.9999999999999991</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="16">
         <v>2.7999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="13">
         <f t="shared" si="0"/>
         <v>11.015284991738744</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>4.4061139966954974E-2</v>
       </c>
     </row>
